--- a/schedule/Test.xlsx
+++ b/schedule/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazekaoru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBAEB1-A815-4028-B74C-169E547B9B9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58411D4-662E-45C5-8FF5-00E8C97CA60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{9AF51B73-86CE-4639-802F-A4E7BB27F8E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{C1B6A4B1-070A-451A-993F-F983A21A9932}"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Основы философии</t>
   </si>
   <si>
-    <t>A-11</t>
+    <t>А-3</t>
   </si>
   <si>
-    <t>Семенар</t>
+    <t>Лекция</t>
   </si>
   <si>
     <t>Белов Ф.Р.</t>
-  </si>
-  <si>
-    <t>ИСП21</t>
-  </si>
-  <si>
-    <t>ИСП22</t>
-  </si>
-  <si>
-    <t>Основы криптографии</t>
-  </si>
-  <si>
-    <t>Антонов Алексей Алексеевич</t>
-  </si>
-  <si>
-    <t>A-20</t>
   </si>
 </sst>
 </file>
@@ -61,17 +46,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -98,11 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,65 +392,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5AC60A-E27A-4C60-A4B4-5A333AC203D5}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07F94E5-743A-43D8-A7EB-CADF5CB97369}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2">
-        <v>45430</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>45425.354166666664</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="F1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45436</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
